--- a/HumanResoureAPI/Resources/ExportFile/ParaFile/myfile.xlsx
+++ b/HumanResoureAPI/Resources/ExportFile/ParaFile/myfile.xlsx
@@ -1,100 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <bookViews>
-    <workbookView activeTab="1" showSheetTabs="1"/>
-  </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="Evaluation Warning" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr fullPrecision="1" calcMode="auto" calcId="125725"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
-  <si>
-    <t>Spire.XLS for .NET</t>
-  </si>
-  <si>
-    <t>e-iceblue Inc. 2002-2020 All rights reserved</t>
-  </si>
-  <si>
-    <t>Home page</t>
-  </si>
-  <si>
-    <t>https://www.e-iceblue.com</t>
-  </si>
-  <si>
-    <t>Contact US</t>
-  </si>
-  <si>
-    <t>mailto:support@e-iceblue.com</t>
-  </si>
-  <si>
-    <t>Buy Now!</t>
-  </si>
-  <si>
-    <t>https://www.e-iceblue.com/Buy/Spire.XLS.html</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="1"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color indexed="12"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
-      <patternFill patternType="none">
-        <bgColor indexed="65"/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor indexed="64"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="64"/>
-        <bgColor indexed="65"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -106,28 +39,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf xxid="0" numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf xxid="6" numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs>
-    <xf xxid="1" numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf xxid="2" numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf xxid="3" numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf xxid="4" numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xxid="5" numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xxid="7" numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf xxid="8" numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -455,142 +374,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr/>
-  <dimension ref="A1:R2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" baseColWidth="0"/>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" t="str">
         <v>Theo dõi cập nhật các quy định của Pháp Luật và cập nhật QC, hướng dẫn, kiểm tra chấp hành nội quy, QC</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" t="str">
         <v>HC401400</v>
       </c>
-      <c r="D1" s="1">
-        <v>38906.62</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1.1</v>
-      </c>
-      <c r="F1" s="1">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1">
-        <v>42797.28</v>
-      </c>
-      <c r="H1" s="1">
-        <v>100</v>
-      </c>
-      <c r="I1" s="1">
-        <v>1</v>
-      </c>
-      <c r="J1" s="1">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1">
-        <v>0</v>
-      </c>
-      <c r="L1" s="1">
-        <v>0</v>
-      </c>
-      <c r="M1" s="1">
-        <v>0</v>
-      </c>
-      <c r="N1" s="1">
-        <v>0</v>
-      </c>
-      <c r="O1" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="R1" s="1">
-        <v>99.5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="str">
-        <v>Hiệu quả công việc: 99.50 %</v>
+      <c r="D1" t="str">
+        <v>18/10/2020</v>
+      </c>
+      <c r="E1" t="str">
+        <v>21:03</v>
+      </c>
+      <c r="F1" t="str">
+        <v>08:30</v>
+      </c>
+      <c r="G1">
+        <v>6447.11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:H2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:S2" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr/>
-  <dimension ref="B1:B11"/>
-  <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" baseColWidth="0"/>
-  <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2">
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
-    <hyperlink ref="B8" r:id="rId2"/>
-    <hyperlink ref="B11" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/HumanResoureAPI/Resources/ExportFile/ParaFile/myfile.xlsx
+++ b/HumanResoureAPI/Resources/ExportFile/ParaFile/myfile.xlsx
@@ -1,33 +1,100 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView activeTab="1" showSheetTabs="1"/>
+  </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="Evaluation Warning" sheetId="2" r:id="rId4"/>
   </sheets>
+  <calcPr fullPrecision="1" calcMode="auto" calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+  <si>
+    <t>Spire.XLS for .NET</t>
+  </si>
+  <si>
+    <t>e-iceblue Inc. 2002-2020 All rights reserved</t>
+  </si>
+  <si>
+    <t>Home page</t>
+  </si>
+  <si>
+    <t>https://www.e-iceblue.com</t>
+  </si>
+  <si>
+    <t>Contact US</t>
+  </si>
+  <si>
+    <t>mailto:support@e-iceblue.com</t>
+  </si>
+  <si>
+    <t>Buy Now!</t>
+  </si>
+  <si>
+    <t>https://www.e-iceblue.com/Buy/Spire.XLS.html</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+    <numFmt numFmtId="164" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -39,14 +106,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="2">
+    <xf xxid="0" numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf xxid="6" numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs>
+    <xf xxid="1" numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf xxid="2" numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf xxid="3" numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf xxid="4" numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xxid="5" numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xxid="7" numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf xxid="8" numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -374,38 +455,354 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="normal" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" baseColWidth="0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1">
+    <row r="1" spans="1:18">
+      <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="1" t="str">
+        <v>Công tác văn thư, lưu trữ</v>
+      </c>
+      <c r="C1" s="1" t="str">
+        <v>HC200500</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="I1" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>0</v>
+      </c>
+      <c r="R1" s="1">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <v>Lễ tân</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <v>HC200600</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6.62</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5.96</v>
+      </c>
+      <c r="H2" s="1">
+        <v>6.21</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="str">
         <v>Theo dõi cập nhật các quy định của Pháp Luật và cập nhật QC, hướng dẫn, kiểm tra chấp hành nội quy, QC</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C3" s="1" t="str">
         <v>HC401400</v>
       </c>
-      <c r="D1" t="str">
-        <v>18/10/2020</v>
-      </c>
-      <c r="E1" t="str">
-        <v>21:03</v>
-      </c>
-      <c r="F1" t="str">
-        <v>08:30</v>
-      </c>
-      <c r="G1">
-        <v>6447.11</v>
+      <c r="D3" s="1">
+        <v>64.24</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>70.66</v>
+      </c>
+      <c r="H3" s="1">
+        <v>73.62</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="R3" s="1">
+        <v>73.57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <v>Công tác bảo vệ</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <v>HC502000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <v>Tổng hợp ngày công phục vụ việc tính lương</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <v>HC702600</v>
+      </c>
+      <c r="D5" s="1">
+        <v>15.57</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>18.84</v>
+      </c>
+      <c r="H5" s="1">
+        <v>19.63</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>19.63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="str">
+        <v>Hiệu quả công việc: 99.95 %</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:H6"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1"/>
+    <ignoredError sqref="A1:S6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr/>
+  <dimension ref="B1:B11"/>
+  <sheetViews>
+    <sheetView view="normal" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" baseColWidth="0"/>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId2"/>
+    <hyperlink ref="B11" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/HumanResoureAPI/Resources/ExportFile/ParaFile/myfile.xlsx
+++ b/HumanResoureAPI/Resources/ExportFile/ParaFile/myfile.xlsx
@@ -42,8 +42,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -385,25 +386,25 @@
         <v>1</v>
       </c>
       <c r="B1" t="str">
-        <v>Quản lý đào tạo; Quản lý sáng kiến</v>
+        <v>Theo dõi biến động nhân sự; Báo cáo đánh giá tình hình nhân sự hàng tháng</v>
       </c>
       <c r="C1" t="str">
-        <v>HC703000</v>
-      </c>
-      <c r="D1" t="str">
-        <v>23/11/2020</v>
+        <v>HC803100</v>
+      </c>
+      <c r="D1" s="1">
+        <v>43842.0000462963</v>
       </c>
       <c r="E1" t="str">
-        <v>21:26</v>
-      </c>
-      <c r="F1" t="str">
-        <v>23/11/2020</v>
+        <v>08:06</v>
+      </c>
+      <c r="F1" s="1">
+        <v>43842.0000462963</v>
       </c>
       <c r="G1" t="str">
-        <v>21:26</v>
+        <v>11:43</v>
       </c>
       <c r="H1">
-        <v>0.01</v>
+        <v>217.6</v>
       </c>
     </row>
     <row r="2">
@@ -411,30 +412,654 @@
         <v>2</v>
       </c>
       <c r="B2" t="str">
-        <v>Quản lý đào tạo; Quản lý sáng kiến</v>
+        <v>Công nghệ thông tin và nhiệm vụ khác</v>
       </c>
       <c r="C2" t="str">
-        <v>HC703000</v>
-      </c>
-      <c r="D2" t="str">
-        <v>23/11/2020</v>
+        <v>HC602400</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43842.0000462963</v>
       </c>
       <c r="E2" t="str">
-        <v>21:26</v>
-      </c>
-      <c r="F2" t="str">
-        <v>23/11/2020</v>
+        <v>13:05</v>
+      </c>
+      <c r="F2" s="1">
+        <v>43842.0000462963</v>
       </c>
       <c r="G2" t="str">
-        <v>21:26</v>
+        <v>13:05</v>
       </c>
       <c r="H2">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Theo dõi biến động nhân sự; Báo cáo đánh giá tình hình nhân sự hàng tháng</v>
+      </c>
+      <c r="C3" t="str">
+        <v>HC803100</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43842.0000462963</v>
+      </c>
+      <c r="E3" t="str">
+        <v>13:06</v>
+      </c>
+      <c r="F3" s="1">
+        <v>43842.0000462963</v>
+      </c>
+      <c r="G3" t="str">
+        <v>13:14</v>
+      </c>
+      <c r="H3">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Thực hiện theo yêu cầu cấp trên</v>
+      </c>
+      <c r="C4" t="str">
+        <v>HC902000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43842.0000462963</v>
+      </c>
+      <c r="E4" t="str">
+        <v>13:40</v>
+      </c>
+      <c r="F4" s="1">
+        <v>43842.0000462963</v>
+      </c>
+      <c r="G4" t="str">
+        <v>13:58</v>
+      </c>
+      <c r="H4">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Thực hiện theo yêu cầu cấp trên</v>
+      </c>
+      <c r="C5" t="str">
+        <v>HC902000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43842.0000462963</v>
+      </c>
+      <c r="E5" t="str">
+        <v>14:03</v>
+      </c>
+      <c r="F5" s="1">
+        <v>43842.0000462963</v>
+      </c>
+      <c r="G5" t="str">
+        <v>15:11</v>
+      </c>
+      <c r="H5">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Thực hiện theo yêu cầu cấp trên</v>
+      </c>
+      <c r="C6" t="str">
+        <v>HC902000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43842.0000462963</v>
+      </c>
+      <c r="E6" t="str">
+        <v>15:14</v>
+      </c>
+      <c r="F6" s="1">
+        <v>43842.0000462963</v>
+      </c>
+      <c r="G6" t="str">
+        <v>16:59</v>
+      </c>
+      <c r="H6">
+        <v>104.6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Tổng hợp, đánh giá tình hình các đơn vị thực hiện các quyết định và các kết luận của Ban lãnh đạo Công ty</v>
+      </c>
+      <c r="C7" t="str">
+        <v>HC501500</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43842.0000462963</v>
+      </c>
+      <c r="E7" t="str">
+        <v>17:37</v>
+      </c>
+      <c r="F7" s="1">
+        <v>43842.0000462963</v>
+      </c>
+      <c r="G7" t="str">
+        <v>17:54</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Tổng hợp, đánh giá tình hình các đơn vị thực hiện các quyết định và các kết luận của Ban lãnh đạo Công ty</v>
+      </c>
+      <c r="C8" t="str">
+        <v>HC501500</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43873.0000462963</v>
+      </c>
+      <c r="E8" t="str">
+        <v>08:03</v>
+      </c>
+      <c r="F8" s="1">
+        <v>43873.0000462963</v>
+      </c>
+      <c r="G8" t="str">
+        <v>08:39</v>
+      </c>
+      <c r="H8">
+        <v>36.2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Tổng hợp, đánh giá tình hình các đơn vị thực hiện các quyết định và các kết luận của Ban lãnh đạo Công ty</v>
+      </c>
+      <c r="C9" t="str">
+        <v>HC501500</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43873.0000462963</v>
+      </c>
+      <c r="E9" t="str">
+        <v>08:42</v>
+      </c>
+      <c r="F9" s="1">
+        <v>43873.0000462963</v>
+      </c>
+      <c r="G9" t="str">
+        <v>10:42</v>
+      </c>
+      <c r="H9">
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Tổng hợp, đánh giá tình hình các đơn vị thực hiện các quyết định và các kết luận của Ban lãnh đạo Công ty</v>
+      </c>
+      <c r="C10" t="str">
+        <v>HC501500</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43873.0000462963</v>
+      </c>
+      <c r="E10" t="str">
+        <v>10:48</v>
+      </c>
+      <c r="F10" s="1">
+        <v>43873.0000462963</v>
+      </c>
+      <c r="G10" t="str">
+        <v>10:58</v>
+      </c>
+      <c r="H10">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Tổng hợp ngày công phục vụ việc tính lương</v>
+      </c>
+      <c r="C11" t="str">
+        <v>HC702600</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43873.0000462963</v>
+      </c>
+      <c r="E11" t="str">
+        <v>11:00</v>
+      </c>
+      <c r="F11" s="1">
+        <v>43873.0000462963</v>
+      </c>
+      <c r="G11" t="str">
+        <v>11:56</v>
+      </c>
+      <c r="H11">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Tổng hợp ngày công phục vụ việc tính lương</v>
+      </c>
+      <c r="C12" t="str">
+        <v>HC702600</v>
+      </c>
+      <c r="D12" s="1">
+        <v>43873.0000462963</v>
+      </c>
+      <c r="E12" t="str">
+        <v>13:01</v>
+      </c>
+      <c r="F12" s="1">
+        <v>43873.0000462963</v>
+      </c>
+      <c r="G12" t="str">
+        <v>17:00</v>
+      </c>
+      <c r="H12">
+        <v>238.2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Tổng hợp ngày công phục vụ việc tính lương</v>
+      </c>
+      <c r="C13" t="str">
+        <v>HC702600</v>
+      </c>
+      <c r="D13" s="1">
+        <v>43873.0000462963</v>
+      </c>
+      <c r="E13" t="str">
+        <v>17:14</v>
+      </c>
+      <c r="F13" s="1">
+        <v>43873.0000462963</v>
+      </c>
+      <c r="G13" t="str">
+        <v>18:13</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Tổng hợp ngày công phục vụ việc tính lương</v>
+      </c>
+      <c r="C14" t="str">
+        <v>HC702600</v>
+      </c>
+      <c r="D14" s="1">
+        <v>43902.0000462963</v>
+      </c>
+      <c r="E14" t="str">
+        <v>08:06</v>
+      </c>
+      <c r="F14" s="1">
+        <v>43902.0000462963</v>
+      </c>
+      <c r="G14" t="str">
+        <v>11:55</v>
+      </c>
+      <c r="H14">
+        <v>228.4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Tổng hợp ngày công phục vụ việc tính lương</v>
+      </c>
+      <c r="C15" t="str">
+        <v>HC702600</v>
+      </c>
+      <c r="D15" s="1">
+        <v>43902.0000462963</v>
+      </c>
+      <c r="E15" t="str">
+        <v>13:08</v>
+      </c>
+      <c r="F15" s="1">
+        <v>43902.0000462963</v>
+      </c>
+      <c r="G15" t="str">
+        <v>17:00</v>
+      </c>
+      <c r="H15">
+        <v>231.4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Tổng hợp ngày công phục vụ việc tính lương</v>
+      </c>
+      <c r="C16" t="str">
+        <v>HC702600</v>
+      </c>
+      <c r="D16" s="1">
+        <v>43902.0000462963</v>
+      </c>
+      <c r="E16" t="str">
+        <v>17:01</v>
+      </c>
+      <c r="F16" s="1">
+        <v>43902.0000462963</v>
+      </c>
+      <c r="G16" t="str">
+        <v>18:07</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Tổng hợp ngày công phục vụ việc tính lương</v>
+      </c>
+      <c r="C17" t="str">
+        <v>HC702600</v>
+      </c>
+      <c r="D17" s="1">
+        <v>43933.0000462963</v>
+      </c>
+      <c r="E17" t="str">
+        <v>08:07</v>
+      </c>
+      <c r="F17" s="1">
+        <v>43933.0000462963</v>
+      </c>
+      <c r="G17" t="str">
+        <v>12:03</v>
+      </c>
+      <c r="H17">
+        <v>232.4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Tổng hợp ngày công phục vụ việc tính lương</v>
+      </c>
+      <c r="C18" t="str">
+        <v>HC702600</v>
+      </c>
+      <c r="D18" s="1">
+        <v>43933.0000462963</v>
+      </c>
+      <c r="E18" t="str">
+        <v>13:06</v>
+      </c>
+      <c r="F18" s="1">
+        <v>43933.0000462963</v>
+      </c>
+      <c r="G18" t="str">
+        <v>14:02</v>
+      </c>
+      <c r="H18">
+        <v>56.6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="C19" t="str">
+        <v>HC702900</v>
+      </c>
+      <c r="D19" s="1">
+        <v>43933.0000462963</v>
+      </c>
+      <c r="E19" t="str">
+        <v>14:02</v>
+      </c>
+      <c r="F19" s="1">
+        <v>43933.0000462963</v>
+      </c>
+      <c r="G19" t="str">
+        <v>14:48</v>
+      </c>
+      <c r="H19">
+        <v>45.7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Tổng hợp ngày công phục vụ việc tính lương</v>
+      </c>
+      <c r="C20" t="str">
+        <v>HC702600</v>
+      </c>
+      <c r="D20" s="1">
+        <v>43933.0000462963</v>
+      </c>
+      <c r="E20" t="str">
+        <v>15:39</v>
+      </c>
+      <c r="F20" s="1">
+        <v>43933.0000462963</v>
+      </c>
+      <c r="G20" t="str">
+        <v>15:43</v>
+      </c>
+      <c r="H20">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Tổng hợp ngày công phục vụ việc tính lương</v>
+      </c>
+      <c r="C21" t="str">
+        <v>HC702600</v>
+      </c>
+      <c r="D21" s="1">
+        <v>43933.0000462963</v>
+      </c>
+      <c r="E21" t="str">
+        <v>15:47</v>
+      </c>
+      <c r="F21" s="1">
+        <v>43933.0000462963</v>
+      </c>
+      <c r="G21" t="str">
+        <v>16:09</v>
+      </c>
+      <c r="H21">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="C22" t="str">
+        <v>HC702900</v>
+      </c>
+      <c r="D22" s="1">
+        <v>43933.0000462963</v>
+      </c>
+      <c r="E22" t="str">
+        <v>16:09</v>
+      </c>
+      <c r="F22" s="1">
+        <v>43933.0000462963</v>
+      </c>
+      <c r="G22" t="str">
+        <v>16:54</v>
+      </c>
+      <c r="H22">
+        <v>44.1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="C23" t="str">
+        <v>HC702900</v>
+      </c>
+      <c r="D23" s="1">
+        <v>43933.0000462963</v>
+      </c>
+      <c r="E23" t="str">
+        <v>17:02</v>
+      </c>
+      <c r="F23" s="1">
+        <v>43933.0000462963</v>
+      </c>
+      <c r="G23" t="str">
+        <v>17:28</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Tổng hợp ngày công phục vụ việc tính lương</v>
+      </c>
+      <c r="C24" t="str">
+        <v>HC702600</v>
+      </c>
+      <c r="D24" s="1">
+        <v>43963.0000462963</v>
+      </c>
+      <c r="E24" t="str">
+        <v>08:07</v>
+      </c>
+      <c r="F24" s="1">
+        <v>43963.0000462963</v>
+      </c>
+      <c r="G24" t="str">
+        <v>08:58</v>
+      </c>
+      <c r="H24">
+        <v>51.4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Tuyển dụng</v>
+      </c>
+      <c r="C25" t="str">
+        <v>HC702900</v>
+      </c>
+      <c r="D25" s="1">
+        <v>43963.0000462963</v>
+      </c>
+      <c r="E25" t="str">
+        <v>08:58</v>
+      </c>
+      <c r="F25" s="1">
+        <v>43994.0000462963</v>
+      </c>
+      <c r="G25" t="str">
+        <v>20:47</v>
+      </c>
+      <c r="H25">
+        <v>901.1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Theo dõi cập nhật các quy định của Pháp Luật và cập nhật QC, hướng dẫn, kiểm tra chấp hành nội quy, QC</v>
+      </c>
+      <c r="C26" t="str">
+        <v>HC401400</v>
+      </c>
+      <c r="D26" s="1">
+        <v>43994.0000462963</v>
+      </c>
+      <c r="E26" t="str">
+        <v>20:47</v>
+      </c>
+      <c r="F26" s="1">
+        <v>43994.0000462963</v>
+      </c>
+      <c r="G26" t="str">
+        <v>20:48</v>
+      </c>
+      <c r="H26">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I26"/>
   </ignoredErrors>
 </worksheet>
 </file>